--- a/haozhi_greenroom/src/main/resources/templates/hz.xlsx
+++ b/haozhi_greenroom/src/main/resources/templates/hz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19875" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="合同" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>序号</t>
   </si>
@@ -105,39 +105,18 @@
   <si>
     <t>备注</t>
   </si>
-  <si>
-    <t>zc20191120-1</t>
-  </si>
-  <si>
-    <t>国内商标注册</t>
-  </si>
-  <si>
-    <t>急速注册</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>果馨美供应链管理（天津）有限公司</t>
-  </si>
-  <si>
-    <t>王颢橦</t>
-  </si>
-  <si>
-    <t>969229650@qq.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -185,6 +164,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -192,8 +178,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +203,42 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,14 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,23 +277,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,42 +306,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -343,37 +322,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +382,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,121 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,41 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,22 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,9 +587,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,10 +791,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -839,10 +818,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,8 +1162,8 @@
   <sheetPr/>
   <dimension ref="A1:AC1909"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1306,61 +1285,18 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="10:28">
-      <c r="J2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="11">
-        <v>43789</v>
-      </c>
-      <c r="O2" s="1">
-        <v>800</v>
-      </c>
-      <c r="P2" s="1">
-        <v>270</v>
-      </c>
-      <c r="Q2" s="1">
-        <f>O2+P2</f>
-        <v>1070</v>
-      </c>
-      <c r="S2" s="4">
-        <v>43787</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="3">
-        <v>43791</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>15222277733</v>
-      </c>
-      <c r="AB2" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="14:28">
       <c r="N3" s="12"/>
@@ -16909,18 +16845,18 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4 T5 T2:T3 T6:T1021">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K2:K3 K6:K1398">
       <formula1>"国内商标注册,国际商标注册,商标流程,商标案件,版权登记,软著有材料申报,软著无材料申报"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4 R4 L5 R5 L2:L3 L6:L1570 R2:R3 R6:R1138">
       <formula1>#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4 T5 T2:T3 T6:T1021">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" display="969229650@qq.com"/>
+    <hyperlink ref="AB2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
